--- a/NormalDistributionSolutions.xlsx
+++ b/NormalDistributionSolutions.xlsx
@@ -114,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,26 +166,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -222,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,6 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,13 +220,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +506,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +516,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -648,11 +625,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -717,7 +694,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1">
